--- a/Data/t10.1.xlsx
+++ b/Data/t10.1.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3671.808522126367</v>
+        <v>7597.097645084782</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.864969896044429</v>
+        <v>3.86496989604443</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1029.718543212048</v>
+        <v>2130.522948731027</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>860.1591016597033</v>
+        <v>1779.698654284096</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>456.2386733679649</v>
+        <v>943.9734480035295</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36.29752039282418</v>
+        <v>75.10081341034892</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1029.062558029754</v>
+        <v>2129.165692911834</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>203.1409874739986</v>
+        <v>420.3056636148303</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57.19113799007468</v>
+        <v>118.3304241291158</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3692.838246341011</v>
+        <v>7896.068148678068</v>
       </c>
     </row>
     <row r="13">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3761258600430559</v>
+        <v>0.3761258600430558</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>983.9595274849147</v>
+        <v>2103.913295487598</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>935.8746073735376</v>
+        <v>2001.097580095954</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>463.443269528917</v>
+        <v>990.939595816942</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>38.51063475093405</v>
+        <v>82.34387107085462</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>994.0257370118843</v>
+        <v>2125.436977577539</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>200.1286280080878</v>
+        <v>427.9172765877434</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76.89584218273565</v>
+        <v>164.4195520414369</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4693.335006683099</v>
+        <v>8512.538950217351</v>
       </c>
     </row>
     <row r="23">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1211.874320026849</v>
+        <v>2198.037714611682</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1289.415204887113</v>
+        <v>2338.677537182925</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>613.1682849809705</v>
+        <v>1112.134314193634</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46.54157330440736</v>
+        <v>84.41480418380773</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1183.709791772192</v>
+        <v>2146.954285996236</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>240.1242779199652</v>
+        <v>435.5255411718659</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>108.501553791602</v>
+        <v>196.7947528772006</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5229.546185888986</v>
+        <v>9066.322158636469</v>
       </c>
     </row>
     <row r="33">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.390225250242697</v>
+        <v>0.3902252502426971</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1361.811028776549</v>
+        <v>2360.934786155543</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1456.364342042913</v>
+        <v>2524.859296766516</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>750.395436462907</v>
+        <v>1300.94018324208</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>62.67829770681623</v>
+        <v>108.6636620397915</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1253.064833125286</v>
+        <v>2172.404460912253</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>225.6140751884573</v>
+        <v>391.1409932090821</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>119.6181725860576</v>
+        <v>207.3787763112028</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5508.463721145498</v>
+        <v>9729.140288406497</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.737023563155107</v>
+        <v>3.737023563155109</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.39792394517931</v>
+        <v>0.3979239451793101</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1281.778383499737</v>
+        <v>2263.898310493465</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1747.14394154654</v>
+        <v>3085.834703075968</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>769.2831764212633</v>
+        <v>1358.720747525777</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>68.51766159702039</v>
+        <v>121.0170340873823</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1206.614719095779</v>
+        <v>2131.142995655023</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>291.1086465198184</v>
+        <v>514.1609357046794</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>144.0171924653418</v>
+        <v>254.3655618642022</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3364.295570093208</v>
+        <v>8943.290580763689</v>
       </c>
     </row>
     <row r="53">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.3923570460908749</v>
+        <v>0.392357046090875</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>807.234331990713</v>
+        <v>2145.867105713782</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1010.421024231024</v>
+        <v>2685.997303251378</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>465.2865382984148</v>
+        <v>1236.868945853373</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>38.4835312163906</v>
+        <v>102.3005842000191</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>761.2870586814803</v>
+        <v>2023.725692143853</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>165.8549730752848</v>
+        <v>440.8914697218221</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>115.7281125999006</v>
+        <v>307.6394798794614</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5923.826639071198</v>
+        <v>8728.616571053455</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3.879563241468143</v>
+        <v>3.879563241468142</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.3960010751519519</v>
+        <v>0.3960010751519518</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1381.927699032209</v>
+        <v>2036.237342634587</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1713.553619487315</v>
+        <v>2524.880188052013</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>881.2650582434761</v>
+        <v>1298.522941258873</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>55.76166560188965</v>
+        <v>82.16347777498585</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1389.195879636656</v>
+        <v>2046.946832552296</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>300.2807415698519</v>
+        <v>442.4564756077642</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>201.8419754997998</v>
+        <v>297.4093131729379</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>12877.14602575071</v>
+        <v>8639.283497638542</v>
       </c>
     </row>
     <row r="73">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.3888587503745318</v>
+        <v>0.3888587503745319</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3011.551474143447</v>
+        <v>2020.451340757374</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3661.948705584654</v>
+        <v>2456.803157942909</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1953.444947569847</v>
+        <v>1310.567160249447</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>134.5710357731347</v>
+        <v>90.28377299520383</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3017.327889042084</v>
+        <v>2024.326740307049</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>640.9955911542659</v>
+        <v>430.0442521692435</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>457.3063824832768</v>
+        <v>306.8070732173148</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10358.32301378596</v>
+        <v>8512.457162247259</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3.618636503777034</v>
+        <v>3.618636503777035</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.3720399211117291</v>
+        <v>0.372039921111729</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2381.894549631389</v>
+        <v>1957.438022712969</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3211.689490365863</v>
+        <v>2639.362488386683</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1667.397386718631</v>
+        <v>1370.265129596264</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>108.3165861840185</v>
+        <v>89.01443782214282</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2105.184516393542</v>
+        <v>1730.038056408939</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>566.1190394060376</v>
+        <v>465.2359330040916</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>317.7214450864744</v>
+        <v>261.10309431617</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9535.346016466417</v>
+        <v>8636.984263100414</v>
       </c>
     </row>
     <row r="93">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2575.49420981458</v>
+        <v>2332.846959246275</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2738.557957752021</v>
+        <v>2480.547842086367</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1466.891259601671</v>
+        <v>1328.689772031389</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>108.2537362519341</v>
+        <v>98.05473391475961</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1755.815979762177</v>
+        <v>1590.393779094967</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>545.3406736470122</v>
+        <v>493.9620238409847</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>344.9921996370229</v>
+        <v>312.4891528856725</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8160.974948751044</v>
+        <v>7419.652768495787</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3.434674100231558</v>
+        <v>3.434674100231557</v>
       </c>
     </row>
     <row r="104">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1840.514619845053</v>
+        <v>1673.326959137429</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2682.722053727111</v>
+        <v>2439.030414630461</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1005.358215414225</v>
+        <v>914.0340355375954</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>138.1891640124851</v>
+        <v>125.6364122889837</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1511.239484244258</v>
+        <v>1373.962338268061</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>676.6811239023734</v>
+        <v>615.2131339552095</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>306.2702876055375</v>
+        <v>278.4494746780467</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4412.926006942999</v>
+        <v>8118.60072377468</v>
       </c>
     </row>
     <row r="113">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1159.841530353993</v>
+        <v>2133.797456150613</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1377.32942675509</v>
+        <v>2533.916875863556</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>644.3647752369307</v>
+        <v>1185.458428802753</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>73.56182892856266</v>
+        <v>135.3340429098502</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>734.7408350639248</v>
+        <v>1351.726148580728</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>264.712298612208</v>
+        <v>486.9996586672636</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>158.3753119922907</v>
+        <v>291.3681127999163</v>
       </c>
     </row>
     <row r="122">

--- a/Data/t10.1.xlsx
+++ b/Data/t10.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7597.097645084782</v>
+        <v>7948.173962135745</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.86496989604443</v>
+        <v>3.864969896044429</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2130.522948731027</v>
+        <v>2228.978462293759</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1779.698654284096</v>
+        <v>1861.941910616449</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>943.9734480035295</v>
+        <v>987.5962546332948</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75.10081341034892</v>
+        <v>78.57136469340311</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2129.165692911834</v>
+        <v>2227.558485104306</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>420.3056636148303</v>
+        <v>439.7287869325916</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>118.3304241291158</v>
+        <v>123.7986978619414</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7896.068148678068</v>
+        <v>8260.960460759228</v>
       </c>
     </row>
     <row r="13">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3761258600430558</v>
+        <v>0.3761258600430559</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2103.913295487598</v>
+        <v>2201.139126414258</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2001.097580095954</v>
+        <v>2093.572101459282</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>990.939595816942</v>
+        <v>1036.732797375233</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82.34387107085462</v>
+        <v>86.14913781057841</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2125.436977577539</v>
+        <v>2223.657458749666</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>427.9172765877434</v>
+        <v>447.6921470034345</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>164.4195520414369</v>
+        <v>172.0176919467761</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8512.538950217351</v>
+        <v>8905.919549363491</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3.742007350094517</v>
+        <v>3.742007350094518</v>
       </c>
     </row>
     <row r="24">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2198.037714611682</v>
+        <v>2299.613213787246</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2338.677537182925</v>
+        <v>2446.752269782316</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1112.134314193634</v>
+        <v>1163.528153964236</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>84.41480418380773</v>
+        <v>88.31577267755924</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2146.954285996236</v>
+        <v>2246.169122874369</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>435.5255411718659</v>
+        <v>455.6520039500786</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>196.7947528772006</v>
+        <v>205.8890123276872</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9066.322158636469</v>
+        <v>9485.294132059897</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.748027280592706</v>
+        <v>3.748027280592707</v>
       </c>
     </row>
     <row r="34">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2360.934786155543</v>
+        <v>2470.038068519863</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2524.859296766516</v>
+        <v>2641.53784223107</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1300.94018324208</v>
+        <v>1361.059100962156</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>108.6636620397915</v>
+        <v>113.6852163291302</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2172.404460912253</v>
+        <v>2272.795398729881</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>391.1409932090821</v>
+        <v>409.216361693038</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>207.3787763112028</v>
+        <v>216.962143594757</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9729.140288406497</v>
+        <v>10178.74234699472</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3.737023563155109</v>
+        <v>3.737023563155108</v>
       </c>
     </row>
     <row r="44">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2263.898310493465</v>
+        <v>2368.517352943205</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3085.834703075968</v>
+        <v>3228.43698794786</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1358.720747525777</v>
+        <v>1421.509814907411</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>121.0170340873823</v>
+        <v>126.6094611710749</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2131.142995655023</v>
+        <v>2229.627162764234</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>514.1609357046794</v>
+        <v>537.9212894754992</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>254.3655618642022</v>
+        <v>266.1202777854409</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8943.290580763689</v>
+        <v>9356.577031207362</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3.777523282056658</v>
+        <v>3.777523282056657</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.392357046090875</v>
+        <v>0.3923570460908749</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2145.867105713782</v>
+        <v>2245.031701925366</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2685.997303251378</v>
+        <v>2810.122342165998</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1236.868945853373</v>
+        <v>1294.027009955109</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>102.3005842000191</v>
+        <v>107.0280885722107</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2023.725692143853</v>
+        <v>2117.245901559477</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>440.8914697218221</v>
+        <v>461.2659022538651</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>307.6394798794614</v>
+        <v>321.8560847753367</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8728.616571053455</v>
+        <v>9131.98252761689</v>
       </c>
     </row>
     <row r="63">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2036.237342634587</v>
+        <v>2130.33573919216</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2524.880188052013</v>
+        <v>2641.559698942563</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1298.522941258873</v>
+        <v>1358.530153634022</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>82.16347777498585</v>
+        <v>85.96040819775109</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2046.946832552296</v>
+        <v>2141.540134987541</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>442.4564756077642</v>
+        <v>462.9032300353873</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>297.4093131729379</v>
+        <v>311.1531626274681</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8639.283497638542</v>
+        <v>9038.521203142096</v>
       </c>
     </row>
     <row r="73">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2020.451340757374</v>
+        <v>2113.820236173995</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2456.803157942909</v>
+        <v>2570.336699922301</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1310.567160249447</v>
+        <v>1371.130958868779</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>90.28377299520383</v>
+        <v>94.45595768906894</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2024.326740307049</v>
+        <v>2117.874725300317</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>430.0442521692435</v>
+        <v>449.9174141679175</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>306.8070732173148</v>
+        <v>320.9852110197174</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8512.457162247259</v>
+        <v>8905.8339818159</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3.618636503777035</v>
+        <v>3.618636503777034</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.372039921111729</v>
+        <v>0.3720399211117291</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1957.438022712969</v>
+        <v>2047.894952974252</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2639.362488386683</v>
+        <v>2761.332443897886</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1370.265129596264</v>
+        <v>1433.587684808288</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>89.01443782214282</v>
+        <v>93.12796412585945</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1730.038056408939</v>
+        <v>1809.986402155821</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>465.2359330040916</v>
+        <v>486.7353694401258</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>261.10309431617</v>
+        <v>273.1691644136682</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8636.984263100414</v>
+        <v>9036.115716607301</v>
       </c>
     </row>
     <row r="93">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.3633506477362352</v>
+        <v>0.3633506477362351</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2332.846959246275</v>
+        <v>2440.652249760819</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2480.547842086367</v>
+        <v>2595.178671036135</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1328.689772031389</v>
+        <v>1390.091050975048</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>98.05473391475961</v>
+        <v>102.586029477938</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1590.393779094967</v>
+        <v>1663.888897455947</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>493.9620238409847</v>
+        <v>516.7889475156243</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>312.4891528856725</v>
+        <v>326.9298703857901</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>7419.652768495787</v>
+        <v>7762.529020645291</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3.434674100231557</v>
+        <v>3.434674100231558</v>
       </c>
     </row>
     <row r="104">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1673.326959137429</v>
+        <v>1750.654577325427</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2439.030414630461</v>
+        <v>2551.742644372269</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>914.0340355375954</v>
+        <v>956.2732850309048</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125.6364122889837</v>
+        <v>131.4423096164256</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1373.962338268061</v>
+        <v>1437.455748517693</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>615.2131339552095</v>
+        <v>643.6433018114983</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>278.4494746780467</v>
+        <v>291.3171539710714</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>8118.60072377468</v>
+        <v>8494.877891523587</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3.390809936630176</v>
+        <v>3.384235570539732</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.3267590590328477</v>
+        <v>0.328446387139379</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2133.797456150613</v>
+        <v>2254.498066292051</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2533.916875863556</v>
+        <v>2628.87594444971</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1185.458428802753</v>
+        <v>1240.418899762093</v>
       </c>
     </row>
     <row r="118">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>135.3340429098502</v>
+        <v>141.5880861742734</v>
       </c>
     </row>
     <row r="119">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1351.726148580728</v>
+        <v>1414.191982255018</v>
       </c>
     </row>
     <row r="120">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>486.9996586672636</v>
+        <v>510.4721256838192</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>291.3681127999163</v>
+        <v>304.8327869066216</v>
       </c>
     </row>
     <row r="122">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9907.152</v>
+        <v>10476.77956786359</v>
       </c>
     </row>
     <row r="123">
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>3.388602286313407</v>
+        <v>3.452399617681198</v>
       </c>
     </row>
     <row r="124">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.3334372486955552</v>
+        <v>0.3434005647028749</v>
       </c>
     </row>
     <row r="125">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2508.079</v>
+        <v>2632.70645710208</v>
       </c>
     </row>
     <row r="126">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3148.352</v>
+        <v>3302.587567009418</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1652.337</v>
+        <v>1728.694632294269</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>161.114</v>
+        <v>170.6266987792879</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1361.795</v>
+        <v>1424.726134429704</v>
       </c>
     </row>
     <row r="130">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>793.633</v>
+        <v>922.5716239147124</v>
       </c>
     </row>
     <row r="131">
@@ -2792,7 +2792,187 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>281.842</v>
+        <v>294.8664543341227</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Receita bruta de prestação de Serviços</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>11209.714</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Participação da receita bruta de Serviços em Sergipe no Nordeste</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>3.219876533226341</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Participação da receita bruta de Serviços em Sergipe no Brasil</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3255402456283393</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Transportes, serviços auxiliares aos transportes e correio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>2752.555</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Serviços profissionais, administrativos e complementares</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3505.843</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Serviços prestados principalmente às famílias</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2044.616</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Serviços de manutenção e reparação</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>212.594</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Serviços de informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1546.602</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>911.533</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Atividades imobiliárias </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>R$ milhões</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>235.971</v>
       </c>
     </row>
   </sheetData>
